--- a/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A65F53A-DDBB-4953-A3A4-ED4B096BBF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E4F81A-2684-4B99-960F-1B8225F1C097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD306064-7D5C-46B2-A59B-ED400B98BF76}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5997F894-2412-4AD2-A472-A473CA38F378}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="184">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -83,517 +83,508 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,38%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
     <t>Bastante en desacuerdo</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>70,98%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1008,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FAF0CA-68A7-459D-875E-D9FF3689CD34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390EFBAD-38D3-4C7C-9FD7-4D96F2A03CA6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1168,13 +1159,13 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>12</v>
@@ -1183,13 +1174,13 @@
         <v>11247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -1198,13 +1189,13 @@
         <v>6219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -1213,19 +1204,19 @@
         <v>17466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>46</v>
@@ -1234,13 +1225,13 @@
         <v>38680</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -1249,10 +1240,10 @@
         <v>55758</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -1482,7 +1473,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>27</v>
@@ -1524,16 +1515,16 @@
         <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>111</v>
@@ -1542,13 +1533,13 @@
         <v>130535</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>113</v>
@@ -1557,13 +1548,13 @@
         <v>89619</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>224</v>
@@ -1572,13 +1563,13 @@
         <v>220155</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1584,13 @@
         <v>490667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>718</v>
@@ -1608,13 +1599,13 @@
         <v>488619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>1191</v>
@@ -1623,13 +1614,13 @@
         <v>979286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,13 +1635,13 @@
         <v>1493584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>2054</v>
@@ -1659,13 +1650,13 @@
         <v>1643996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>3417</v>
@@ -1674,13 +1665,13 @@
         <v>3137580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,7 +1727,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1748,13 +1739,13 @@
         <v>5143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1763,13 +1754,13 @@
         <v>2724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -1778,19 +1769,19 @@
         <v>7867</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -1799,13 +1790,13 @@
         <v>2404</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1814,13 +1805,13 @@
         <v>3171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1829,19 +1820,19 @@
         <v>5575</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>26</v>
@@ -1850,13 +1841,13 @@
         <v>26776</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -1865,13 +1856,13 @@
         <v>23557</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
@@ -1880,13 +1871,13 @@
         <v>50332</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1892,13 @@
         <v>155101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -1916,13 +1907,13 @@
         <v>137041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -1931,13 +1922,13 @@
         <v>292142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,13 +1943,13 @@
         <v>483615</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>746</v>
@@ -1967,13 +1958,13 @@
         <v>545526</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>1232</v>
@@ -1982,13 +1973,13 @@
         <v>1029141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2047,13 @@
         <v>12031</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2074,10 +2065,10 @@
         <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2086,19 +2077,19 @@
         <v>24045</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
         <v>43</v>
@@ -2107,13 +2098,13 @@
         <v>38945</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2122,13 +2113,13 @@
         <v>21977</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -2137,19 +2128,19 @@
         <v>60922</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>183</v>
@@ -2158,13 +2149,13 @@
         <v>195992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
@@ -2173,13 +2164,13 @@
         <v>168934</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>410</v>
@@ -2188,13 +2179,13 @@
         <v>364925</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2200,13 @@
         <v>725140</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>1138</v>
@@ -2224,13 +2215,13 @@
         <v>749876</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>1865</v>
@@ -2239,13 +2230,13 @@
         <v>1475015</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,13 +2251,13 @@
         <v>2378169</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>3910</v>
@@ -2275,13 +2266,13 @@
         <v>2824522</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>6285</v>
@@ -2290,13 +2281,13 @@
         <v>5202691</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,7 +2343,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E4F81A-2684-4B99-960F-1B8225F1C097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AB9E3B-0A23-4602-B1F3-B0619D61CE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5997F894-2412-4AD2-A472-A473CA38F378}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{950D9E7C-FE7B-48B6-AFB1-804C7979DA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -999,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390EFBAD-38D3-4C7C-9FD7-4D96F2A03CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E44E6DC-DDB1-472C-9CDD-4E05EE48D519}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AB9E3B-0A23-4602-B1F3-B0619D61CE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44D3C59-9C1F-46C5-A333-B3B5EBCF4DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{950D9E7C-FE7B-48B6-AFB1-804C7979DA9F}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{B8D04E3A-70D2-4F6B-83FF-A2EF95004887}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="187">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -83,508 +83,517 @@
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>0,07%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>70,98%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -999,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E44E6DC-DDB1-472C-9CDD-4E05EE48D519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CA2B7E-5574-4CD6-9358-F0CDCCA25EF8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1159,13 +1168,13 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
         <v>12</v>
@@ -1174,13 +1183,13 @@
         <v>11247</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -1189,13 +1198,13 @@
         <v>6219</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -1204,19 +1213,19 @@
         <v>17466</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>46</v>
@@ -1225,13 +1234,13 @@
         <v>38680</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -1240,10 +1249,10 @@
         <v>55758</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -1473,7 +1482,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>27</v>
@@ -1515,16 +1524,16 @@
         <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>111</v>
@@ -1533,13 +1542,13 @@
         <v>130535</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>113</v>
@@ -1548,13 +1557,13 @@
         <v>89619</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>224</v>
@@ -1563,13 +1572,13 @@
         <v>220155</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,13 +1593,13 @@
         <v>490667</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>718</v>
@@ -1599,13 +1608,13 @@
         <v>488619</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>1191</v>
@@ -1614,13 +1623,13 @@
         <v>979286</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,13 +1644,13 @@
         <v>1493584</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>2054</v>
@@ -1650,13 +1659,13 @@
         <v>1643996</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>3417</v>
@@ -1665,13 +1674,13 @@
         <v>3137580</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,7 +1736,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1739,13 +1748,13 @@
         <v>5143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1754,13 +1763,13 @@
         <v>2724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -1769,19 +1778,19 @@
         <v>7867</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -1790,13 +1799,13 @@
         <v>2404</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1805,13 +1814,13 @@
         <v>3171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1820,19 +1829,19 @@
         <v>5575</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>26</v>
@@ -1841,13 +1850,13 @@
         <v>26776</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -1856,13 +1865,13 @@
         <v>23557</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
@@ -1871,13 +1880,13 @@
         <v>50332</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1901,13 @@
         <v>155101</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -1907,13 +1916,13 @@
         <v>137041</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -1922,13 +1931,13 @@
         <v>292142</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1952,13 @@
         <v>483615</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>746</v>
@@ -1958,13 +1967,13 @@
         <v>545526</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>1232</v>
@@ -1973,13 +1982,13 @@
         <v>1029141</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2056,13 @@
         <v>12031</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2065,10 +2074,10 @@
         <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2077,19 +2086,19 @@
         <v>24045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7">
         <v>43</v>
@@ -2098,13 +2107,13 @@
         <v>38945</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2113,13 +2122,13 @@
         <v>21977</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -2128,19 +2137,19 @@
         <v>60922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>183</v>
@@ -2149,13 +2158,13 @@
         <v>195992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
@@ -2164,13 +2173,13 @@
         <v>168934</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>410</v>
@@ -2179,13 +2188,13 @@
         <v>364925</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2209,13 @@
         <v>725140</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>1138</v>
@@ -2215,13 +2224,13 @@
         <v>749876</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>1865</v>
@@ -2230,13 +2239,13 @@
         <v>1475015</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2260,13 @@
         <v>2378169</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>3910</v>
@@ -2266,13 +2275,13 @@
         <v>2824522</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>6285</v>
@@ -2281,13 +2290,13 @@
         <v>5202691</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,7 +2352,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44D3C59-9C1F-46C5-A333-B3B5EBCF4DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95B646E-A1DF-498F-AD4C-614F16B7FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{B8D04E3A-70D2-4F6B-83FF-A2EF95004887}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BEECEBB9-6635-4EA3-A2EE-A2F93576CE11}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="182">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -89,511 +89,496 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,27%</t>
+  </si>
+  <si>
     <t>Bastante en desacuerdo</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1008,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CA2B7E-5574-4CD6-9358-F0CDCCA25EF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B6908D-0AF1-4D1A-A196-FFAECDDE6FD4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1144,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1000</v>
+        <v>921</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1159,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1000</v>
+        <v>921</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1168,202 +1153,202 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>11247</v>
+        <v>10294</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>6219</v>
+        <v>5508</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>17466</v>
+        <v>15801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>38680</v>
+        <v>36307</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
       </c>
       <c r="I6" s="7">
-        <v>55758</v>
+        <v>49091</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>128</v>
       </c>
       <c r="N6" s="7">
-        <v>94438</v>
+        <v>85398</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>94</v>
       </c>
       <c r="D7" s="7">
-        <v>79372</v>
+        <v>72959</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>205</v>
       </c>
       <c r="I7" s="7">
-        <v>124216</v>
+        <v>110357</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>299</v>
       </c>
       <c r="N7" s="7">
-        <v>203587</v>
+        <v>183316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>526</v>
       </c>
       <c r="D8" s="7">
-        <v>400970</v>
+        <v>384494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>1110</v>
       </c>
       <c r="I8" s="7">
-        <v>635000</v>
+        <v>577323</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>1636</v>
       </c>
       <c r="N8" s="7">
-        <v>1035971</v>
+        <v>961817</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>54</v>
@@ -1384,7 +1369,7 @@
         <v>678</v>
       </c>
       <c r="D9" s="7">
-        <v>530269</v>
+        <v>504054</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>57</v>
@@ -1399,7 +1384,7 @@
         <v>1408</v>
       </c>
       <c r="I9" s="7">
-        <v>822193</v>
+        <v>743200</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -1414,7 +1399,7 @@
         <v>2086</v>
       </c>
       <c r="N9" s="7">
-        <v>1352462</v>
+        <v>1247254</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1437,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>6888</v>
+        <v>6831</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1452,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>8290</v>
+        <v>7754</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1467,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>15178</v>
+        <v>14584</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1482,13 +1467,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>25294</v>
+        <v>24591</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -1503,28 +1488,28 @@
         <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>12588</v>
+        <v>11550</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>37882</v>
+        <v>36141</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>75</v>
@@ -1533,13 +1518,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>111</v>
       </c>
       <c r="D12" s="7">
-        <v>130535</v>
+        <v>122602</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>76</v>
@@ -1554,7 +1539,7 @@
         <v>113</v>
       </c>
       <c r="I12" s="7">
-        <v>89619</v>
+        <v>81945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>79</v>
@@ -1569,118 +1554,118 @@
         <v>224</v>
       </c>
       <c r="N12" s="7">
-        <v>220155</v>
+        <v>204547</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>473</v>
       </c>
       <c r="D13" s="7">
-        <v>490667</v>
+        <v>465776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>718</v>
       </c>
       <c r="I13" s="7">
-        <v>488619</v>
+        <v>495969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>1191</v>
       </c>
       <c r="N13" s="7">
-        <v>979286</v>
+        <v>961745</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1363</v>
       </c>
       <c r="D14" s="7">
-        <v>1493584</v>
+        <v>1656202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>2054</v>
       </c>
       <c r="I14" s="7">
-        <v>1643996</v>
+        <v>1634659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>3417</v>
       </c>
       <c r="N14" s="7">
-        <v>3137580</v>
+        <v>3290861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,7 +1677,7 @@
         <v>1980</v>
       </c>
       <c r="D15" s="7">
-        <v>2146968</v>
+        <v>2276003</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>57</v>
@@ -1707,7 +1692,7 @@
         <v>2911</v>
       </c>
       <c r="I15" s="7">
-        <v>2243112</v>
+        <v>2231877</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -1722,7 +1707,7 @@
         <v>4891</v>
       </c>
       <c r="N15" s="7">
-        <v>4390080</v>
+        <v>4507880</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>57</v>
@@ -1736,7 +1721,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1745,250 +1730,250 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>5143</v>
+        <v>5225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2724</v>
+        <v>2520</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>7867</v>
+        <v>7745</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2404</v>
+        <v>2301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3171</v>
+        <v>2894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>5575</v>
+        <v>5194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>26776</v>
+        <v>25710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>23557</v>
+        <v>21895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
       </c>
       <c r="N18" s="7">
-        <v>50332</v>
+        <v>47605</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>160</v>
       </c>
       <c r="D19" s="7">
-        <v>155101</v>
+        <v>145499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
       </c>
       <c r="I19" s="7">
-        <v>137041</v>
+        <v>125000</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
       </c>
       <c r="N19" s="7">
-        <v>292142</v>
+        <v>270499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>486</v>
       </c>
       <c r="D20" s="7">
-        <v>483615</v>
+        <v>467888</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>746</v>
       </c>
       <c r="I20" s="7">
-        <v>545526</v>
+        <v>506365</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>1232</v>
       </c>
       <c r="N20" s="7">
-        <v>1029141</v>
+        <v>974253</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,7 +1985,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>57</v>
@@ -2015,7 +2000,7 @@
         <v>1001</v>
       </c>
       <c r="I21" s="7">
-        <v>712018</v>
+        <v>658674</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -2030,7 +2015,7 @@
         <v>1682</v>
       </c>
       <c r="N21" s="7">
-        <v>1385057</v>
+        <v>1305297</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>57</v>
@@ -2053,58 +2038,58 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>12031</v>
+        <v>12056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>12014</v>
+        <v>11195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>24045</v>
+        <v>23251</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
         <v>43</v>
       </c>
       <c r="D23" s="7">
-        <v>38945</v>
+        <v>37186</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>151</v>
@@ -2119,184 +2104,184 @@
         <v>30</v>
       </c>
       <c r="I23" s="7">
-        <v>21977</v>
+        <v>19952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
       </c>
       <c r="N23" s="7">
-        <v>60922</v>
+        <v>57137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>183</v>
       </c>
       <c r="D24" s="7">
-        <v>195992</v>
+        <v>184619</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
       </c>
       <c r="I24" s="7">
-        <v>168934</v>
+        <v>152932</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>410</v>
       </c>
       <c r="N24" s="7">
-        <v>364925</v>
+        <v>337550</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>727</v>
       </c>
       <c r="D25" s="7">
-        <v>725140</v>
+        <v>684235</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>1138</v>
       </c>
       <c r="I25" s="7">
-        <v>749876</v>
+        <v>731326</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>1865</v>
       </c>
       <c r="N25" s="7">
-        <v>1475015</v>
+        <v>1415561</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2375</v>
       </c>
       <c r="D26" s="7">
-        <v>2378169</v>
+        <v>2508584</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>3910</v>
       </c>
       <c r="I26" s="7">
-        <v>2824522</v>
+        <v>2718346</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>6285</v>
       </c>
       <c r="N26" s="7">
-        <v>5202691</v>
+        <v>5226931</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2293,7 @@
         <v>3339</v>
       </c>
       <c r="D27" s="7">
-        <v>3350276</v>
+        <v>3426680</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>57</v>
@@ -2323,7 +2308,7 @@
         <v>5320</v>
       </c>
       <c r="I27" s="7">
-        <v>3777323</v>
+        <v>3633750</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -2338,7 +2323,7 @@
         <v>8659</v>
       </c>
       <c r="N27" s="7">
-        <v>7127599</v>
+        <v>7060431</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>57</v>
@@ -2352,7 +2337,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
